--- a/lvp15_test_command_list_tag1.0.xlsx
+++ b/lvp15_test_command_list_tag1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>No.</t>
   </si>
@@ -95,26 +95,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>get ntc value, battery temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>./rename_bt.sh bt_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zacklirename_bt.sh bt_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>./read_bt_name.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zackliread_bt_name.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get bt name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,14 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>get_wlan1_mac_addr.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_wlan2_mac_addr.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inventory.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,14 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>set_wlan1_mac_addr.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_wlan2_mac_addr.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>command form</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,14 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>./get_wlan1_mac_addr.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./get_wlan2_mac_addr.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>./inventory.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,14 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>./set_wlan1_mac_addr.sh   XXXXXXXXXXXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./set_wlan2_mac_addr.sh   XXXXXXXXXXXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>exp.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,11 +287,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adb shell /etc/factory-test/lvp15/get_wlan1_mac_addr.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/get_wlan2_mac_addr.sh</t>
+    <t>adb shell /etc/factory-test/lvp15/mic_record_close.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/ntc_0x48_detector.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/ntc_0x49_detector.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_mute_toggle.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_shutdown.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_wlan0_mac_addr.sh b0672f292cac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">button check after run it, push button will get the test result, only avilable for once </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connect wifi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter Wifi/BT ftm mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit Wifi/BT ftm mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get bluetooth MAC address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get NTC value, will list all of the avilable NTC value.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get software version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Wlan0 MAC address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check I2C bus chip state, chips list defined at i2c.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start audio record, record files path: /data/factory-test/mic-3ch.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change bt_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set LED by RGB brightness, avilable LED define at led.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mute_toggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device shutdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set Wlan0 Mac address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -343,115 +379,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adb shell /etc/factory-test/lvp15/mic_record.sh &lt;record time in seconds&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/mic_record_close.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/ntc_0x48_detector.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/ntc_0x49_detector.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zackliset_bt0_mac_addr.sh b0:67:2f:29:2c:af</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/set_led.sh cx  5 5 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/set_mute_toggle.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/set_shutdown.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/set_wlan0_mac_addr.sh b0672f292cac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/set_wlan0_mac_addr.sh b0672f292cac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/set_wlan0_mac_addr.sh b0672f292cac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>descript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">button check after run it, push button will get the test result, only avilable for once </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>connect wifi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter Wifi/BT ftm mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exit Wifi/BT ftm mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get bluetooth MAC address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get NTC value, will list all of the avilable NTC value.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get software version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get Wlan0 MAC address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check I2C bus chip state, chips list defined at i2c.conf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start audio record, record files path: /data/factory-test/mic-3ch.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change bt_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set LED by RGB brightness, avilable LED define at led.conf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mute_toggle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device shutdown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set Wlan0 Mac address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>adb shell /etc/factory-test/lvp15/mic_record.sh 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if the result is 'OK',means the ntc work.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/rename_bt.sh lv001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/read_bt_name.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_bt0_mac_addr.sh b0:67:2f:29:2c:af</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./enter_factory_mode.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/enter_factory_mode.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_factory_mode.sh</t>
+  </si>
+  <si>
+    <t>exit_factory_mode.sh</t>
+  </si>
+  <si>
+    <t>./exit_factory_mode.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/exit_factory_mode.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">enter factory mode ,need to reboot device </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">exit factory mode, need to reboot device </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_led.sh cx  255 0 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -830,16 +808,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -847,24 +825,24 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -873,41 +851,41 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -915,16 +893,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -932,16 +910,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -949,16 +927,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -966,16 +944,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -983,16 +961,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1000,13 +978,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1014,13 +995,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1028,16 +1012,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1045,7 +1029,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1062,16 +1046,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -1079,13 +1063,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1102,10 +1086,10 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -1113,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -1127,7 +1111,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -1141,7 +1125,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1155,16 +1139,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1172,16 +1156,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1189,13 +1173,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1203,16 +1187,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -1220,16 +1204,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -1237,16 +1221,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -1254,50 +1238,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/lvp15_test_command_list_tag1.0.xlsx
+++ b/lvp15_test_command_list_tag1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>No.</t>
   </si>
@@ -430,6 +430,36 @@
   </si>
   <si>
     <t>adb shell /etc/factory-test/lvp15/set_led.sh cx  255 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/get_battery_temp_vol.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./get_battery_temp_vol.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_battery_temp_vol.sh</t>
+  </si>
+  <si>
+    <t>get battery temprature and the voltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_burn_in.sh</t>
+  </si>
+  <si>
+    <t>./set_burn_in.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_burn_in.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>play the pinknoise</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1250,6 +1280,40 @@
         <v>89</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lvp15_test_command_list_tag1.0.xlsx
+++ b/lvp15_test_command_list_tag1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>No.</t>
   </si>
@@ -460,6 +460,22 @@
   </si>
   <si>
     <t>play the pinknoise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_touch_counter.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/get_touch_counter.sh mute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./get_touch_counter.sh &lt;button_name&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>press for one second and then run this script,get the touch counter.this script just support cypress widget, mute\mufunction\pair</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -818,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1314,6 +1330,23 @@
         <v>112</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lvp15_test_command_list_tag1.0.xlsx
+++ b/lvp15_test_command_list_tag1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
   <si>
     <t>No.</t>
   </si>
@@ -476,6 +476,76 @@
   </si>
   <si>
     <t>press for one second and then run this script,get the touch counter.this script just support cypress widget, mute\mufunction\pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./ntc_temp_get.sh &lt;ntc_addr&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntc_temp_get.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/ntc_temp_get.sh 0x48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/ntc_temp_get.sh 0x49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/ntc_temp_get.sh 0x4a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/ntc_temp_get.sh 0x4b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">get the 0x48 ntc temperature </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get the 0x49 ntc temperature</t>
+  </si>
+  <si>
+    <t>get the 0x4a ntc temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get the 0x4b ntc temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_amp_mute.sh</t>
+  </si>
+  <si>
+    <t>set_amp_unmute.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./set_amp_mute.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_amp_mute.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_amp_unmute.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mute amp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unmute amp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./set_amp_unmute.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +569,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +579,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,11 +601,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -834,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1347,6 +1424,108 @@
         <v>116</v>
       </c>
     </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lvp15_test_command_list_tag1.0.xlsx
+++ b/lvp15_test_command_list_tag1.0.xlsx
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/lvp15_test_command_list_tag1.0.xlsx
+++ b/lvp15_test_command_list_tag1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="147">
   <si>
     <t>No.</t>
   </si>
@@ -259,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adb shell /etc/factory-test/lvp15/button_f_check.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adb shell nohup "/etc/factory-test/lvp15/en_ftm.sh &gt; /dev/null" &amp;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,10 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">button check after run it, push button will get the test result, only avilable for once </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>connect wifi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,21 +425,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adb shell /etc/factory-test/lvp15/get_battery_temp_vol.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./get_battery_temp_vol.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_battery_temp_vol.sh</t>
-  </si>
-  <si>
-    <t>get battery temprature and the voltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>set_burn_in.sh</t>
   </si>
   <si>
@@ -546,6 +523,76 @@
   </si>
   <si>
     <t>./set_amp_unmute.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_battery_temp_vol_cap.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/get_battery_temp_vol_cap.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./get_battery_temp_vol_cap.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get battery temprature and voltage and capacity  exc:temp=26C vol=7984mv cap=85%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./set_volume.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_volume.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_volume.sh 1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 to 1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/button_f_check.sh cypress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">the parameter cypress/power/encoder. button check after run it, push button will get the test result, only avilable for once </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean_bt_list.sh</t>
+  </si>
+  <si>
+    <t>./clean_bt_list.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/clean_bt_list.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean bt list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean_wifi_list.sh</t>
+  </si>
+  <si>
+    <t>./clean_wifi_list.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/clean_wifi_list.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean wifi list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -911,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -940,7 +987,7 @@
         <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -954,10 +1001,10 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -974,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -982,16 +1029,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -999,16 +1046,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1022,10 +1069,10 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1042,7 +1089,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1056,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -1073,10 +1120,10 @@
         <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1090,10 +1137,10 @@
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1107,10 +1154,10 @@
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1124,10 +1171,10 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1141,10 +1188,10 @@
         <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1175,10 +1222,10 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -1192,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1209,10 +1256,10 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -1226,7 +1273,7 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -1268,10 +1315,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1285,7 +1332,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
@@ -1302,7 +1349,7 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1316,10 +1363,10 @@
         <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -1333,10 +1380,10 @@
         <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -1350,10 +1397,10 @@
         <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -1367,10 +1414,10 @@
         <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1378,16 +1425,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1395,16 +1442,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -1412,118 +1459,274 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E31" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="E33" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D35" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="E36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>134</v>
       </c>
-      <c r="D36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>133</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/lvp15_test_command_list_tag1.0.xlsx
+++ b/lvp15_test_command_list_tag1.0.xlsx
@@ -115,484 +115,484 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>connect_wifi.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_ftm.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dis_ftm.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_bt0_mac_addr.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_ntc.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_sw_version.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_wlan0_mac_addr.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mic_record_init.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mic_record.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mic_record_close.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntc_0x49_detector.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntc_0x4a_detector.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntc_0x4b_detector.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rename_bt.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read_bt_name.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_bt0_mac_addr.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_led.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_mute_toggle.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_shutdown.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_wlan0_mac_addr.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./button_f_check.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nohup "./en_ftm.sh &gt; /dev/null" &amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./dis_ftm.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./get_bt0_mac_addr.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./get_ntc.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./get_sw_version.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./get_wlan0_mac_addr.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./inventory.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./set_led.sh &lt;led name&gt;  &lt;R&gt; &lt;G&gt; &lt;B&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./set_mute_toggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./set_shutdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./set_wlan0_mac_addr.sh   XXXXXXXXXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell nohup "/etc/factory-test/lvp15/en_ftm.sh &gt; /dev/null" &amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/do_sync.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/get_bt0_mac_addr.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/get_ntc.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/get_wlan0_mac_addr.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/mic_record_close.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/ntc_0x48_detector.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/ntc_0x49_detector.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_mute_toggle.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_shutdown.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_wlan0_mac_addr.sh b0672f292cac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connect wifi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter Wifi/BT ftm mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit Wifi/BT ftm mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get bluetooth MAC address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get NTC value, will list all of the avilable NTC value.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get software version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Wlan0 MAC address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check I2C bus chip state, chips list defined at i2c.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start audio record, record files path: /data/factory-test/mic-3ch.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change bt_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set LED by RGB brightness, avilable LED define at led.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mute_toggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device shutdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set Wlan0 Mac address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/inventory.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/mic_record.sh 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if the result is 'OK',means the ntc work.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/rename_bt.sh lv001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/read_bt_name.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_bt0_mac_addr.sh b0:67:2f:29:2c:af</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./enter_factory_mode.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/enter_factory_mode.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_factory_mode.sh</t>
+  </si>
+  <si>
+    <t>exit_factory_mode.sh</t>
+  </si>
+  <si>
+    <t>./exit_factory_mode.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/exit_factory_mode.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">enter factory mode ,need to reboot device </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">exit factory mode, need to reboot device </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_led.sh cx  255 0 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_burn_in.sh</t>
+  </si>
+  <si>
+    <t>./set_burn_in.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_burn_in.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>play the pinknoise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_touch_counter.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/get_touch_counter.sh mute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./get_touch_counter.sh &lt;button_name&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>press for one second and then run this script,get the touch counter.this script just support cypress widget, mute\mufunction\pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./ntc_temp_get.sh &lt;ntc_addr&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntc_temp_get.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/ntc_temp_get.sh 0x48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/ntc_temp_get.sh 0x49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/ntc_temp_get.sh 0x4a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/ntc_temp_get.sh 0x4b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">get the 0x48 ntc temperature </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get the 0x49 ntc temperature</t>
+  </si>
+  <si>
+    <t>get the 0x4a ntc temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get the 0x4b ntc temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_amp_mute.sh</t>
+  </si>
+  <si>
+    <t>set_amp_unmute.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./set_amp_mute.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_amp_mute.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_amp_unmute.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mute amp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unmute amp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./set_amp_unmute.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_battery_temp_vol_cap.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/get_battery_temp_vol_cap.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./get_battery_temp_vol_cap.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get battery temprature and voltage and capacity  exc:temp=26C vol=7984mv cap=85%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./set_volume.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_volume.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_volume.sh 1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 to 1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/button_f_check.sh cypress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">the parameter cypress/power/encoder. button check after run it, push button will get the test result, only avilable for once </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean_bt_list.sh</t>
+  </si>
+  <si>
+    <t>./clean_bt_list.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/clean_bt_list.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean bt list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean_wifi_list.sh</t>
+  </si>
+  <si>
+    <t>./clean_wifi_list.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/clean_wifi_list.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean wifi list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>button_f_check.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>connect_wifi.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>en_ftm.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dis_ftm.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_bt0_mac_addr.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_ntc.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_sw_version.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_wlan0_mac_addr.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inventory.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mic_record_init.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mic_record.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mic_record_close.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ntc_0x49_detector.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ntc_0x4a_detector.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ntc_0x4b_detector.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rename_bt.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>read_bt_name.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_bt0_mac_addr.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_led.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_mute_toggle.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_shutdown.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_wlan0_mac_addr.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>command form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./button_f_check.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nohup "./en_ftm.sh &gt; /dev/null" &amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./dis_ftm.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./get_bt0_mac_addr.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./get_ntc.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./get_sw_version.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./get_wlan0_mac_addr.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./inventory.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./set_led.sh &lt;led name&gt;  &lt;R&gt; &lt;G&gt; &lt;B&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./set_mute_toggle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./set_shutdown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./set_wlan0_mac_addr.sh   XXXXXXXXXXXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell nohup "/etc/factory-test/lvp15/en_ftm.sh &gt; /dev/null" &amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/do_sync.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/get_bt0_mac_addr.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/get_ntc.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adb shell /etc/factory-test/lvp15/get_sw_version.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/get_wlan0_mac_addr.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/mic_record_close.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/ntc_0x48_detector.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/ntc_0x49_detector.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/set_mute_toggle.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/set_shutdown.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/set_wlan0_mac_addr.sh b0672f292cac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>descript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>connect wifi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter Wifi/BT ftm mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exit Wifi/BT ftm mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get bluetooth MAC address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get NTC value, will list all of the avilable NTC value.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get software version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get Wlan0 MAC address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check I2C bus chip state, chips list defined at i2c.conf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start audio record, record files path: /data/factory-test/mic-3ch.wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change bt_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set LED by RGB brightness, avilable LED define at led.conf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mute_toggle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device shutdown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set Wlan0 Mac address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/inventory.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/mic_record.sh 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if the result is 'OK',means the ntc work.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/rename_bt.sh lv001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/read_bt_name.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/set_bt0_mac_addr.sh b0:67:2f:29:2c:af</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./enter_factory_mode.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/enter_factory_mode.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_factory_mode.sh</t>
-  </si>
-  <si>
-    <t>exit_factory_mode.sh</t>
-  </si>
-  <si>
-    <t>./exit_factory_mode.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/exit_factory_mode.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">enter factory mode ,need to reboot device </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">exit factory mode, need to reboot device </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/set_led.sh cx  255 0 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_burn_in.sh</t>
-  </si>
-  <si>
-    <t>./set_burn_in.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/set_burn_in.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>play the pinknoise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_touch_counter.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/get_touch_counter.sh mute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./get_touch_counter.sh &lt;button_name&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>press for one second and then run this script,get the touch counter.this script just support cypress widget, mute\mufunction\pair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./ntc_temp_get.sh &lt;ntc_addr&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ntc_temp_get.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/ntc_temp_get.sh 0x48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/ntc_temp_get.sh 0x49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/ntc_temp_get.sh 0x4a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/ntc_temp_get.sh 0x4b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">get the 0x48 ntc temperature </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get the 0x49 ntc temperature</t>
-  </si>
-  <si>
-    <t>get the 0x4a ntc temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get the 0x4b ntc temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_amp_mute.sh</t>
-  </si>
-  <si>
-    <t>set_amp_unmute.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./set_amp_mute.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/set_amp_mute.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/set_amp_unmute.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mute amp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unmute amp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./set_amp_unmute.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_battery_temp_vol_cap.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/get_battery_temp_vol_cap.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./get_battery_temp_vol_cap.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get battery temprature and voltage and capacity  exc:temp=26C vol=7984mv cap=85%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./set_volume.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_volume.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/set_volume.sh 1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 to 1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/button_f_check.sh cypress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">the parameter cypress/power/encoder. button check after run it, push button will get the test result, only avilable for once </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clean_bt_list.sh</t>
-  </si>
-  <si>
-    <t>./clean_bt_list.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/clean_bt_list.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clean bt list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clean_wifi_list.sh</t>
-  </si>
-  <si>
-    <t>./clean_wifi_list.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb shell /etc/factory-test/lvp15/clean_wifi_list.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clean wifi list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -981,13 +981,13 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1012,7 +1012,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1021,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1029,16 +1029,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1046,16 +1046,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
         <v>97</v>
       </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1063,16 +1063,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1080,16 +1080,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1103,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -1114,16 +1114,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1131,16 +1131,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1148,16 +1148,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1165,16 +1165,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1182,16 +1182,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1199,7 +1199,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1216,16 +1216,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -1233,13 +1233,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1256,10 +1256,10 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -1267,13 +1267,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -1281,7 +1281,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -1295,7 +1295,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1309,16 +1309,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1326,13 +1326,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
@@ -1343,13 +1343,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1357,16 +1357,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -1374,16 +1374,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -1391,16 +1391,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -1408,16 +1408,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1425,16 +1425,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s">
         <v>129</v>
       </c>
-      <c r="C28" t="s">
-        <v>131</v>
-      </c>
       <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" t="s">
         <v>130</v>
-      </c>
-      <c r="E28" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1442,16 +1442,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
         <v>103</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>104</v>
-      </c>
-      <c r="D29" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -1459,16 +1459,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
         <v>107</v>
       </c>
-      <c r="C30" t="s">
-        <v>109</v>
-      </c>
       <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
         <v>108</v>
-      </c>
-      <c r="E30" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1476,16 +1476,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1493,16 +1493,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1510,16 +1510,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1527,16 +1527,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -1544,16 +1544,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
         <v>121</v>
       </c>
-      <c r="C35" t="s">
-        <v>123</v>
-      </c>
       <c r="D35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -1561,16 +1561,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -1578,16 +1578,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -1595,16 +1595,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -1612,16 +1612,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">

--- a/lvp15_test_command_list_tag1.0.xlsx
+++ b/lvp15_test_command_list_tag1.0.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="151">
   <si>
     <t>No.</t>
   </si>
@@ -593,6 +593,22 @@
   </si>
   <si>
     <t>adb shell /etc/factory-test/lvp15/get_sw_version.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_gsensor_direction.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./get_gsensor_direction.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/get_gsensor_direction.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get the direction of the devices through gsensor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -960,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1628,6 +1644,18 @@
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41">

--- a/lvp15_test_command_list_tag1.0.xlsx
+++ b/lvp15_test_command_list_tag1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="155">
   <si>
     <t>No.</t>
   </si>
@@ -203,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>./button_f_check.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nohup "./en_ftm.sh &gt; /dev/null" &amp;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -593,6 +589,41 @@
   </si>
   <si>
     <t>adb shell /etc/factory-test/lvp15/get_sw_version.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_serial_number.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_serial_number.sh</t>
+  </si>
+  <si>
+    <t>./get_serial_number.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/get_serial_number.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./set_serial_number.sh 12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_serial_number.sh 12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result: MODUL_SN 12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if success return OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./button_f_check.sh cypress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,7 +992,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -984,10 +1015,10 @@
         <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -995,16 +1026,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
         <v>135</v>
-      </c>
-      <c r="E2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1021,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1029,16 +1060,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
         <v>92</v>
       </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1046,16 +1077,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
         <v>95</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>96</v>
       </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1066,13 +1097,13 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1083,13 +1114,13 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1103,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -1117,13 +1148,13 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1134,13 +1165,13 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1151,13 +1182,13 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1168,13 +1199,13 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1185,13 +1216,13 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1222,10 +1253,10 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -1239,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1256,10 +1287,10 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -1273,7 +1304,7 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -1315,10 +1346,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1332,7 +1363,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
@@ -1349,7 +1380,7 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1360,13 +1391,13 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -1377,13 +1408,13 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -1394,13 +1425,13 @@
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -1411,13 +1442,13 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1425,16 +1456,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s">
         <v>127</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>129</v>
-      </c>
-      <c r="D28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1442,16 +1473,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
         <v>101</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>102</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>103</v>
-      </c>
-      <c r="E29" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -1459,16 +1490,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
         <v>105</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>107</v>
-      </c>
-      <c r="D30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1476,16 +1507,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1493,16 +1524,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1510,16 +1541,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1527,16 +1558,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -1544,16 +1575,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
         <v>121</v>
       </c>
-      <c r="D35" t="s">
-        <v>122</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -1561,16 +1592,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -1578,16 +1609,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -1595,16 +1626,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" t="s">
         <v>138</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -1612,26 +1643,50 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" t="s">
         <v>142</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">

--- a/lvp15_test_command_list_tag1.0.xlsx
+++ b/lvp15_test_command_list_tag1.0.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="170">
   <si>
     <t>No.</t>
   </si>
@@ -625,25 +625,78 @@
   <si>
     <t>./button_f_check.sh cypress</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_DSN.sh</t>
+  </si>
+  <si>
+    <t>get_MODULE_SN.sh</t>
+  </si>
+  <si>
+    <t>set_DSN.sh</t>
+  </si>
+  <si>
+    <t>set_MODULE_SN.sh</t>
+  </si>
+  <si>
+    <t>./get_DSN.sh</t>
+  </si>
+  <si>
+    <t>./get_MODULE_SN.sh</t>
+  </si>
+  <si>
+    <t>./set_DSN.sh</t>
+  </si>
+  <si>
+    <t>./set_MODULE_SN.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/get_MODULE_SN.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/get_DSN.sh</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_DSN.sh 1234</t>
+  </si>
+  <si>
+    <t>adb shell /etc/factory-test/lvp15/set_MODULE_SN.sh ZTQ03M130144</t>
+  </si>
+  <si>
+    <t>get Device serial number</t>
+  </si>
+  <si>
+    <t>get Moduel serial number</t>
+  </si>
+  <si>
+    <t>if success return OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -679,15 +732,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -703,7 +758,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -991,20 +1046,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="45.375" customWidth="1"/>
-    <col min="4" max="4" width="83.75" customWidth="1"/>
-    <col min="5" max="5" width="98.75" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="83.7109375" customWidth="1"/>
+    <col min="5" max="5" width="98.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1076,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1038,7 +1093,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1055,7 +1110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="12.75" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1072,7 +1127,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1089,7 +1144,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1106,7 +1161,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1123,7 +1178,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1140,7 +1195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1157,7 +1212,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1174,7 +1229,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1191,7 +1246,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1208,7 +1263,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1225,7 +1280,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1242,7 +1297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1259,7 +1314,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1276,7 +1331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1293,7 +1348,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1307,35 +1362,35 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="19" spans="1:5" s="3" customFormat="1">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20" spans="1:5" s="3" customFormat="1">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1352,7 +1407,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1369,7 +1424,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1383,7 +1438,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1400,7 +1455,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1417,7 +1472,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1434,7 +1489,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1451,7 +1506,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1468,7 +1523,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1485,7 +1540,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1502,7 +1557,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" s="2" customFormat="1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1519,7 +1574,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" s="2" customFormat="1">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1536,41 +1591,41 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="33" spans="1:5" s="4" customFormat="1">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34">
+    <row r="34" spans="1:5" s="4" customFormat="1">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1587,7 +1642,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1604,7 +1659,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1621,7 +1676,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1638,7 +1693,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1655,131 +1710,179 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40">
+    <row r="40" spans="1:5" s="3" customFormat="1">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41">
+    <row r="41" spans="1:5" s="3" customFormat="1">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1">
       <c r="A60">
         <v>59</v>
       </c>
